--- a/public/Excel_example/college_data.xlsx
+++ b/public/Excel_example/college_data.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wang\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9150"/>
   </bookViews>
@@ -19,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="103">
   <si>
     <t>文學院</t>
   </si>
@@ -121,9 +116,6 @@
   </si>
   <si>
     <t>法學院</t>
-  </si>
-  <si>
-    <t>法律系/法律所</t>
   </si>
   <si>
     <t>財經法律學系</t>
@@ -328,6 +320,14 @@
   </si>
   <si>
     <t>單位名稱部門</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>法律系法學組/法律所</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>法律系法制組/法律所</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1238,7 +1238,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1248,8 +1248,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1261,16 +1261,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" t="s">
         <v>98</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>99</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>100</v>
-      </c>
-      <c r="D1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1760,7 +1760,7 @@
         <v>33</v>
       </c>
       <c r="D36" t="s">
-        <v>34</v>
+        <v>101</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -1774,7 +1774,7 @@
         <v>33</v>
       </c>
       <c r="D37" t="s">
-        <v>34</v>
+        <v>102</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -1788,7 +1788,7 @@
         <v>33</v>
       </c>
       <c r="D38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -1799,10 +1799,10 @@
         <v>0</v>
       </c>
       <c r="C39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1813,10 +1813,10 @@
         <v>40</v>
       </c>
       <c r="C40" t="s">
+        <v>35</v>
+      </c>
+      <c r="D40" t="s">
         <v>36</v>
-      </c>
-      <c r="D40" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1827,10 +1827,10 @@
         <v>45</v>
       </c>
       <c r="C41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D41" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -1841,10 +1841,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D42" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -1855,10 +1855,10 @@
         <v>54</v>
       </c>
       <c r="C43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -1869,10 +1869,10 @@
         <v>90</v>
       </c>
       <c r="C44" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -1883,10 +1883,10 @@
         <v>0</v>
       </c>
       <c r="C45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -1897,10 +1897,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -1911,10 +1911,10 @@
         <v>0</v>
       </c>
       <c r="C47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -1925,10 +1925,10 @@
         <v>0</v>
       </c>
       <c r="C48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -1939,10 +1939,10 @@
         <v>1</v>
       </c>
       <c r="C49" t="s">
+        <v>44</v>
+      </c>
+      <c r="D49" t="s">
         <v>45</v>
-      </c>
-      <c r="D49" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -1953,10 +1953,10 @@
         <v>2</v>
       </c>
       <c r="C50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -1967,10 +1967,10 @@
         <v>0</v>
       </c>
       <c r="C51" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D51" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -1981,10 +1981,10 @@
         <v>0</v>
       </c>
       <c r="C52" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D52" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -1995,10 +1995,10 @@
         <v>0</v>
       </c>
       <c r="C53" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D53" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -2009,10 +2009,10 @@
         <v>1</v>
       </c>
       <c r="C54" t="s">
+        <v>49</v>
+      </c>
+      <c r="D54" t="s">
         <v>50</v>
-      </c>
-      <c r="D54" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -2023,10 +2023,10 @@
         <v>2</v>
       </c>
       <c r="C55" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D55" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -2037,10 +2037,10 @@
         <v>3</v>
       </c>
       <c r="C56" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D56" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -2051,10 +2051,10 @@
         <v>4</v>
       </c>
       <c r="C57" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D57" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -2065,10 +2065,10 @@
         <v>5</v>
       </c>
       <c r="C58" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D58" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -2079,10 +2079,10 @@
         <v>6</v>
       </c>
       <c r="C59" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D59" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -2093,10 +2093,10 @@
         <v>7</v>
       </c>
       <c r="C60" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D60" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -2107,10 +2107,10 @@
         <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D61" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -2121,10 +2121,10 @@
         <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D62" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -2135,10 +2135,10 @@
         <v>10</v>
       </c>
       <c r="C63" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D63" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -2149,10 +2149,10 @@
         <v>11</v>
       </c>
       <c r="C64" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D64" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -2163,10 +2163,10 @@
         <v>12</v>
       </c>
       <c r="C65" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D65" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -2177,10 +2177,10 @@
         <v>13</v>
       </c>
       <c r="C66" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D66" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -2191,10 +2191,10 @@
         <v>14</v>
       </c>
       <c r="C67" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D67" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -2205,10 +2205,10 @@
         <v>15</v>
       </c>
       <c r="C68" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D68" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -2219,10 +2219,10 @@
         <v>16</v>
       </c>
       <c r="C69" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D69" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -2233,10 +2233,10 @@
         <v>17</v>
       </c>
       <c r="C70" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D70" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -2247,10 +2247,10 @@
         <v>18</v>
       </c>
       <c r="C71" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D71" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -2261,10 +2261,10 @@
         <v>19</v>
       </c>
       <c r="C72" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D72" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -2275,10 +2275,10 @@
         <v>20</v>
       </c>
       <c r="C73" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D73" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -2289,10 +2289,10 @@
         <v>21</v>
       </c>
       <c r="C74" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D74" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -2303,10 +2303,10 @@
         <v>22</v>
       </c>
       <c r="C75" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D75" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -2317,10 +2317,10 @@
         <v>23</v>
       </c>
       <c r="C76" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D76" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -2331,10 +2331,10 @@
         <v>24</v>
       </c>
       <c r="C77" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D77" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -2345,10 +2345,10 @@
         <v>25</v>
       </c>
       <c r="C78" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D78" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -2359,10 +2359,10 @@
         <v>26</v>
       </c>
       <c r="C79" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D79" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -2373,10 +2373,10 @@
         <v>27</v>
       </c>
       <c r="C80" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D80" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -2387,10 +2387,10 @@
         <v>28</v>
       </c>
       <c r="C81" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D81" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -2401,10 +2401,10 @@
         <v>29</v>
       </c>
       <c r="C82" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D82" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -2415,10 +2415,10 @@
         <v>30</v>
       </c>
       <c r="C83" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D83" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -2429,10 +2429,10 @@
         <v>31</v>
       </c>
       <c r="C84" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D84" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -2443,10 +2443,10 @@
         <v>32</v>
       </c>
       <c r="C85" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D85" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -2457,10 +2457,10 @@
         <v>33</v>
       </c>
       <c r="C86" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D86" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -2471,10 +2471,10 @@
         <v>34</v>
       </c>
       <c r="C87" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D87" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -2485,10 +2485,10 @@
         <v>35</v>
       </c>
       <c r="C88" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D88" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -2499,10 +2499,10 @@
         <v>36</v>
       </c>
       <c r="C89" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D89" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -2513,10 +2513,10 @@
         <v>0</v>
       </c>
       <c r="C90" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D90" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -2527,10 +2527,10 @@
         <v>0</v>
       </c>
       <c r="C91" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D91" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -2541,10 +2541,10 @@
         <v>0</v>
       </c>
       <c r="C92" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D92" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -2555,10 +2555,10 @@
         <v>0</v>
       </c>
       <c r="C93" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D93" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -2569,10 +2569,10 @@
         <v>0</v>
       </c>
       <c r="C94" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D94" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -2583,10 +2583,10 @@
         <v>0</v>
       </c>
       <c r="C95" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D95" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -2597,10 +2597,10 @@
         <v>0</v>
       </c>
       <c r="C96" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D96" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -2611,10 +2611,10 @@
         <v>0</v>
       </c>
       <c r="C97" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D97" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -2625,10 +2625,10 @@
         <v>0</v>
       </c>
       <c r="C98" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D98" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -2639,10 +2639,10 @@
         <v>0</v>
       </c>
       <c r="C99" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D99" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -2653,10 +2653,10 @@
         <v>0</v>
       </c>
       <c r="C100" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D100" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/public/Excel_example/college_data.xlsx
+++ b/public/Excel_example/college_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="102">
   <si>
     <t>文學院</t>
   </si>
@@ -323,11 +323,7 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>法律系法學組/法律所</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>法律系法制組/法律所</t>
+    <t>法律系/法律所</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1238,7 +1234,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1248,7 +1244,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
       <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
@@ -1774,7 +1770,7 @@
         <v>33</v>
       </c>
       <c r="D37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">

--- a/public/Excel_example/college_data.xlsx
+++ b/public/Excel_example/college_data.xlsx
@@ -1,20 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26215"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anan/Sites/ciae_inquire/public/Excel_example/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9150"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19540"/>
   </bookViews>
   <sheets>
     <sheet name="college_data (2)" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="102">
   <si>
     <t>文學院</t>
   </si>
@@ -335,7 +345,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -343,7 +353,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -351,7 +361,7 @@
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="新細明體"/>
+      <name val="Calibri Light"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="major"/>
@@ -360,7 +370,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -369,7 +379,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -378,7 +388,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -386,7 +396,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF006100"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -394,7 +404,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF9C0006"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -402,7 +412,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF9C6500"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -410,7 +420,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF3F3F76"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -419,7 +429,7 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF3F3F3F"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -428,7 +438,7 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFA7D00"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -436,7 +446,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFA7D00"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -445,7 +455,7 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -453,7 +463,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -462,7 +472,7 @@
       <i/>
       <sz val="12"/>
       <color rgb="FF7F7F7F"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -471,7 +481,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -479,14 +489,14 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -923,48 +933,48 @@
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - 輔色1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - 輔色2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - 輔色3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - 輔色4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - 輔色5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - 輔色6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - 輔色1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - 輔色2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - 輔色3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - 輔色4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - 輔色5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - 輔色6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - 輔色1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - 輔色2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - 輔色3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - 輔色4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - 輔色5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - 輔色6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="中等" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="合計" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="計算方式" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="連結的儲存格" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="備註" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="說明文字" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="輔色1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="輔色2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="輔色3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="輔色4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="輔色5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="輔色6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="標題" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="標題 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="標題 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="標題 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="標題 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="輸入" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="輸出" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="檢查儲存格" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="壞" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="警告文字" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1234,7 +1244,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1242,20 +1252,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D100"/>
+  <dimension ref="A1:D99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:XFD37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.625" customWidth="1"/>
-    <col min="3" max="3" width="14.25" customWidth="1"/>
-    <col min="4" max="4" width="87.25" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" customWidth="1"/>
+    <col min="4" max="4" width="87.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>97</v>
       </c>
@@ -1269,7 +1279,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1283,7 +1293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1297,7 +1307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1311,7 +1321,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1325,7 +1335,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1339,7 +1349,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1353,7 +1363,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1367,7 +1377,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2</v>
       </c>
@@ -1381,7 +1391,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2</v>
       </c>
@@ -1395,7 +1405,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2</v>
       </c>
@@ -1409,7 +1419,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2</v>
       </c>
@@ -1423,7 +1433,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2</v>
       </c>
@@ -1437,7 +1447,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2</v>
       </c>
@@ -1451,7 +1461,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>3</v>
       </c>
@@ -1465,7 +1475,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>3</v>
       </c>
@@ -1479,7 +1489,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>3</v>
       </c>
@@ -1493,7 +1503,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>3</v>
       </c>
@@ -1507,7 +1517,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>3</v>
       </c>
@@ -1521,7 +1531,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>3</v>
       </c>
@@ -1535,7 +1545,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>3</v>
       </c>
@@ -1549,7 +1559,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>4</v>
       </c>
@@ -1563,7 +1573,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>4</v>
       </c>
@@ -1577,7 +1587,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>4</v>
       </c>
@@ -1591,7 +1601,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>4</v>
       </c>
@@ -1605,7 +1615,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>4</v>
       </c>
@@ -1619,7 +1629,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>4</v>
       </c>
@@ -1633,7 +1643,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>4</v>
       </c>
@@ -1647,7 +1657,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>5</v>
       </c>
@@ -1661,7 +1671,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>5</v>
       </c>
@@ -1675,7 +1685,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>5</v>
       </c>
@@ -1689,7 +1699,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>5</v>
       </c>
@@ -1703,7 +1713,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>5</v>
       </c>
@@ -1717,7 +1727,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>5</v>
       </c>
@@ -1731,7 +1741,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>6</v>
       </c>
@@ -1745,7 +1755,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>6</v>
       </c>
@@ -1759,899 +1769,885 @@
         <v>101</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>6</v>
       </c>
       <c r="B37">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C37" t="s">
         <v>33</v>
       </c>
       <c r="D37" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B38">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C38" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D38" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>7</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C39" t="s">
         <v>35</v>
       </c>
       <c r="D39" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>7</v>
       </c>
       <c r="B40">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C40" t="s">
         <v>35</v>
       </c>
       <c r="D40" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>7</v>
       </c>
       <c r="B41">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C41" t="s">
         <v>35</v>
       </c>
       <c r="D41" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>7</v>
       </c>
       <c r="B42">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C42" t="s">
         <v>35</v>
       </c>
       <c r="D42" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>7</v>
       </c>
       <c r="B43">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="C43" t="s">
         <v>35</v>
       </c>
       <c r="D43" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B44">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="C44" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="D44" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
       <c r="C45" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D45" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B46">
         <v>0</v>
       </c>
       <c r="C46" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D46" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B47">
         <v>0</v>
       </c>
       <c r="C47" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D47" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>11</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C48" t="s">
         <v>44</v>
       </c>
       <c r="D48" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>11</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C49" t="s">
         <v>44</v>
       </c>
       <c r="D49" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50">
+        <v>12</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50" t="s">
+        <v>47</v>
+      </c>
+      <c r="D50" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>13</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51" t="s">
+        <v>48</v>
+      </c>
+      <c r="D51" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>14</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52" t="s">
+        <v>49</v>
+      </c>
+      <c r="D52" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>14</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>49</v>
+      </c>
+      <c r="D53" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>14</v>
+      </c>
+      <c r="B54">
+        <v>2</v>
+      </c>
+      <c r="C54" t="s">
+        <v>49</v>
+      </c>
+      <c r="D54" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>14</v>
+      </c>
+      <c r="B55">
+        <v>3</v>
+      </c>
+      <c r="C55" t="s">
+        <v>49</v>
+      </c>
+      <c r="D55" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>14</v>
+      </c>
+      <c r="B56">
+        <v>4</v>
+      </c>
+      <c r="C56" t="s">
+        <v>49</v>
+      </c>
+      <c r="D56" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>14</v>
+      </c>
+      <c r="B57">
+        <v>5</v>
+      </c>
+      <c r="C57" t="s">
+        <v>49</v>
+      </c>
+      <c r="D57" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>14</v>
+      </c>
+      <c r="B58">
+        <v>6</v>
+      </c>
+      <c r="C58" t="s">
+        <v>49</v>
+      </c>
+      <c r="D58" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>14</v>
+      </c>
+      <c r="B59">
+        <v>7</v>
+      </c>
+      <c r="C59" t="s">
+        <v>49</v>
+      </c>
+      <c r="D59" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>14</v>
+      </c>
+      <c r="B60">
+        <v>8</v>
+      </c>
+      <c r="C60" t="s">
+        <v>49</v>
+      </c>
+      <c r="D60" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>14</v>
+      </c>
+      <c r="B61">
+        <v>9</v>
+      </c>
+      <c r="C61" t="s">
+        <v>49</v>
+      </c>
+      <c r="D61" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>14</v>
+      </c>
+      <c r="B62">
+        <v>10</v>
+      </c>
+      <c r="C62" t="s">
+        <v>49</v>
+      </c>
+      <c r="D62" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>14</v>
+      </c>
+      <c r="B63">
         <v>11</v>
       </c>
-      <c r="B50">
-        <v>2</v>
-      </c>
-      <c r="C50" t="s">
-        <v>44</v>
-      </c>
-      <c r="D50" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51">
+      <c r="C63" t="s">
+        <v>49</v>
+      </c>
+      <c r="D63" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>14</v>
+      </c>
+      <c r="B64">
         <v>12</v>
       </c>
-      <c r="B51">
-        <v>0</v>
-      </c>
-      <c r="C51" t="s">
-        <v>47</v>
-      </c>
-      <c r="D51" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52">
+      <c r="C64" t="s">
+        <v>49</v>
+      </c>
+      <c r="D64" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>14</v>
+      </c>
+      <c r="B65">
         <v>13</v>
       </c>
-      <c r="B52">
-        <v>0</v>
-      </c>
-      <c r="C52" t="s">
-        <v>48</v>
-      </c>
-      <c r="D52" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>14</v>
-      </c>
-      <c r="B53">
-        <v>0</v>
-      </c>
-      <c r="C53" t="s">
-        <v>49</v>
-      </c>
-      <c r="D53" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>14</v>
-      </c>
-      <c r="B54">
-        <v>1</v>
-      </c>
-      <c r="C54" t="s">
-        <v>49</v>
-      </c>
-      <c r="D54" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>14</v>
-      </c>
-      <c r="B55">
-        <v>2</v>
-      </c>
-      <c r="C55" t="s">
-        <v>49</v>
-      </c>
-      <c r="D55" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>14</v>
-      </c>
-      <c r="B56">
-        <v>3</v>
-      </c>
-      <c r="C56" t="s">
-        <v>49</v>
-      </c>
-      <c r="D56" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>14</v>
-      </c>
-      <c r="B57">
-        <v>4</v>
-      </c>
-      <c r="C57" t="s">
-        <v>49</v>
-      </c>
-      <c r="D57" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>14</v>
-      </c>
-      <c r="B58">
-        <v>5</v>
-      </c>
-      <c r="C58" t="s">
-        <v>49</v>
-      </c>
-      <c r="D58" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>14</v>
-      </c>
-      <c r="B59">
-        <v>6</v>
-      </c>
-      <c r="C59" t="s">
-        <v>49</v>
-      </c>
-      <c r="D59" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>14</v>
-      </c>
-      <c r="B60">
-        <v>7</v>
-      </c>
-      <c r="C60" t="s">
-        <v>49</v>
-      </c>
-      <c r="D60" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>14</v>
-      </c>
-      <c r="B61">
-        <v>8</v>
-      </c>
-      <c r="C61" t="s">
-        <v>49</v>
-      </c>
-      <c r="D61" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>14</v>
-      </c>
-      <c r="B62">
-        <v>9</v>
-      </c>
-      <c r="C62" t="s">
-        <v>49</v>
-      </c>
-      <c r="D62" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>14</v>
-      </c>
-      <c r="B63">
-        <v>10</v>
-      </c>
-      <c r="C63" t="s">
-        <v>49</v>
-      </c>
-      <c r="D63" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>14</v>
-      </c>
-      <c r="B64">
-        <v>11</v>
-      </c>
-      <c r="C64" t="s">
-        <v>49</v>
-      </c>
-      <c r="D64" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>14</v>
-      </c>
-      <c r="B65">
-        <v>12</v>
-      </c>
       <c r="C65" t="s">
         <v>49</v>
       </c>
       <c r="D65" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>14</v>
       </c>
       <c r="B66">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C66" t="s">
         <v>49</v>
       </c>
       <c r="D66" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>14</v>
       </c>
       <c r="B67">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C67" t="s">
         <v>49</v>
       </c>
       <c r="D67" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>14</v>
       </c>
       <c r="B68">
+        <v>16</v>
+      </c>
+      <c r="C68" t="s">
+        <v>49</v>
+      </c>
+      <c r="D68" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>14</v>
+      </c>
+      <c r="B69">
+        <v>17</v>
+      </c>
+      <c r="C69" t="s">
+        <v>49</v>
+      </c>
+      <c r="D69" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>14</v>
+      </c>
+      <c r="B70">
+        <v>18</v>
+      </c>
+      <c r="C70" t="s">
+        <v>49</v>
+      </c>
+      <c r="D70" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>14</v>
+      </c>
+      <c r="B71">
+        <v>19</v>
+      </c>
+      <c r="C71" t="s">
+        <v>49</v>
+      </c>
+      <c r="D71" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>14</v>
+      </c>
+      <c r="B72">
+        <v>20</v>
+      </c>
+      <c r="C72" t="s">
+        <v>49</v>
+      </c>
+      <c r="D72" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>14</v>
+      </c>
+      <c r="B73">
+        <v>21</v>
+      </c>
+      <c r="C73" t="s">
+        <v>49</v>
+      </c>
+      <c r="D73" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>14</v>
+      </c>
+      <c r="B74">
+        <v>22</v>
+      </c>
+      <c r="C74" t="s">
+        <v>49</v>
+      </c>
+      <c r="D74" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>14</v>
+      </c>
+      <c r="B75">
+        <v>23</v>
+      </c>
+      <c r="C75" t="s">
+        <v>49</v>
+      </c>
+      <c r="D75" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>14</v>
+      </c>
+      <c r="B76">
+        <v>24</v>
+      </c>
+      <c r="C76" t="s">
+        <v>49</v>
+      </c>
+      <c r="D76" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>14</v>
+      </c>
+      <c r="B77">
+        <v>25</v>
+      </c>
+      <c r="C77" t="s">
+        <v>49</v>
+      </c>
+      <c r="D77" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>14</v>
+      </c>
+      <c r="B78">
+        <v>26</v>
+      </c>
+      <c r="C78" t="s">
+        <v>49</v>
+      </c>
+      <c r="D78" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>14</v>
+      </c>
+      <c r="B79">
+        <v>27</v>
+      </c>
+      <c r="C79" t="s">
+        <v>49</v>
+      </c>
+      <c r="D79" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>14</v>
+      </c>
+      <c r="B80">
+        <v>28</v>
+      </c>
+      <c r="C80" t="s">
+        <v>49</v>
+      </c>
+      <c r="D80" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>14</v>
+      </c>
+      <c r="B81">
+        <v>29</v>
+      </c>
+      <c r="C81" t="s">
+        <v>49</v>
+      </c>
+      <c r="D81" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>14</v>
+      </c>
+      <c r="B82">
+        <v>30</v>
+      </c>
+      <c r="C82" t="s">
+        <v>49</v>
+      </c>
+      <c r="D82" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>14</v>
+      </c>
+      <c r="B83">
+        <v>31</v>
+      </c>
+      <c r="C83" t="s">
+        <v>49</v>
+      </c>
+      <c r="D83" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>14</v>
+      </c>
+      <c r="B84">
+        <v>32</v>
+      </c>
+      <c r="C84" t="s">
+        <v>49</v>
+      </c>
+      <c r="D84" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>14</v>
+      </c>
+      <c r="B85">
+        <v>33</v>
+      </c>
+      <c r="C85" t="s">
+        <v>49</v>
+      </c>
+      <c r="D85" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>14</v>
+      </c>
+      <c r="B86">
+        <v>34</v>
+      </c>
+      <c r="C86" t="s">
+        <v>49</v>
+      </c>
+      <c r="D86" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>14</v>
+      </c>
+      <c r="B87">
+        <v>35</v>
+      </c>
+      <c r="C87" t="s">
+        <v>49</v>
+      </c>
+      <c r="D87" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>14</v>
+      </c>
+      <c r="B88">
+        <v>36</v>
+      </c>
+      <c r="C88" t="s">
+        <v>49</v>
+      </c>
+      <c r="D88" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89">
         <v>15</v>
       </c>
-      <c r="C68" t="s">
-        <v>49</v>
-      </c>
-      <c r="D68" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>14</v>
-      </c>
-      <c r="B69">
+      <c r="B89">
+        <v>0</v>
+      </c>
+      <c r="C89" t="s">
+        <v>86</v>
+      </c>
+      <c r="D89" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90">
         <v>16</v>
       </c>
-      <c r="C69" t="s">
-        <v>49</v>
-      </c>
-      <c r="D69" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>14</v>
-      </c>
-      <c r="B70">
+      <c r="B90">
+        <v>0</v>
+      </c>
+      <c r="C90" t="s">
+        <v>87</v>
+      </c>
+      <c r="D90" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91">
         <v>17</v>
       </c>
-      <c r="C70" t="s">
-        <v>49</v>
-      </c>
-      <c r="D70" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>14</v>
-      </c>
-      <c r="B71">
+      <c r="B91">
+        <v>0</v>
+      </c>
+      <c r="C91" t="s">
+        <v>88</v>
+      </c>
+      <c r="D91" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92">
         <v>18</v>
       </c>
-      <c r="C71" t="s">
-        <v>49</v>
-      </c>
-      <c r="D71" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>14</v>
-      </c>
-      <c r="B72">
+      <c r="B92">
+        <v>0</v>
+      </c>
+      <c r="C92" t="s">
+        <v>89</v>
+      </c>
+      <c r="D92" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93">
         <v>19</v>
       </c>
-      <c r="C72" t="s">
-        <v>49</v>
-      </c>
-      <c r="D72" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>14</v>
-      </c>
-      <c r="B73">
+      <c r="B93">
+        <v>0</v>
+      </c>
+      <c r="C93" t="s">
+        <v>90</v>
+      </c>
+      <c r="D93" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94">
         <v>20</v>
       </c>
-      <c r="C73" t="s">
-        <v>49</v>
-      </c>
-      <c r="D73" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>14</v>
-      </c>
-      <c r="B74">
+      <c r="B94">
+        <v>0</v>
+      </c>
+      <c r="C94" t="s">
+        <v>91</v>
+      </c>
+      <c r="D94" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95">
         <v>21</v>
       </c>
-      <c r="C74" t="s">
-        <v>49</v>
-      </c>
-      <c r="D74" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>14</v>
-      </c>
-      <c r="B75">
+      <c r="B95">
+        <v>0</v>
+      </c>
+      <c r="C95" t="s">
+        <v>92</v>
+      </c>
+      <c r="D95" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96">
         <v>22</v>
       </c>
-      <c r="C75" t="s">
-        <v>49</v>
-      </c>
-      <c r="D75" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>14</v>
-      </c>
-      <c r="B76">
+      <c r="B96">
+        <v>0</v>
+      </c>
+      <c r="C96" t="s">
+        <v>93</v>
+      </c>
+      <c r="D96" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97">
         <v>23</v>
       </c>
-      <c r="C76" t="s">
-        <v>49</v>
-      </c>
-      <c r="D76" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>14</v>
-      </c>
-      <c r="B77">
+      <c r="B97">
+        <v>0</v>
+      </c>
+      <c r="C97" t="s">
+        <v>94</v>
+      </c>
+      <c r="D97" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98">
         <v>24</v>
       </c>
-      <c r="C77" t="s">
-        <v>49</v>
-      </c>
-      <c r="D77" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>14</v>
-      </c>
-      <c r="B78">
+      <c r="B98">
+        <v>0</v>
+      </c>
+      <c r="C98" t="s">
+        <v>95</v>
+      </c>
+      <c r="D98" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99">
         <v>25</v>
       </c>
-      <c r="C78" t="s">
-        <v>49</v>
-      </c>
-      <c r="D78" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>14</v>
-      </c>
-      <c r="B79">
-        <v>26</v>
-      </c>
-      <c r="C79" t="s">
-        <v>49</v>
-      </c>
-      <c r="D79" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>14</v>
-      </c>
-      <c r="B80">
-        <v>27</v>
-      </c>
-      <c r="C80" t="s">
-        <v>49</v>
-      </c>
-      <c r="D80" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>14</v>
-      </c>
-      <c r="B81">
-        <v>28</v>
-      </c>
-      <c r="C81" t="s">
-        <v>49</v>
-      </c>
-      <c r="D81" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>14</v>
-      </c>
-      <c r="B82">
-        <v>29</v>
-      </c>
-      <c r="C82" t="s">
-        <v>49</v>
-      </c>
-      <c r="D82" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>14</v>
-      </c>
-      <c r="B83">
-        <v>30</v>
-      </c>
-      <c r="C83" t="s">
-        <v>49</v>
-      </c>
-      <c r="D83" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>14</v>
-      </c>
-      <c r="B84">
-        <v>31</v>
-      </c>
-      <c r="C84" t="s">
-        <v>49</v>
-      </c>
-      <c r="D84" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>14</v>
-      </c>
-      <c r="B85">
-        <v>32</v>
-      </c>
-      <c r="C85" t="s">
-        <v>49</v>
-      </c>
-      <c r="D85" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <v>14</v>
-      </c>
-      <c r="B86">
-        <v>33</v>
-      </c>
-      <c r="C86" t="s">
-        <v>49</v>
-      </c>
-      <c r="D86" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <v>14</v>
-      </c>
-      <c r="B87">
-        <v>34</v>
-      </c>
-      <c r="C87" t="s">
-        <v>49</v>
-      </c>
-      <c r="D87" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <v>14</v>
-      </c>
-      <c r="B88">
-        <v>35</v>
-      </c>
-      <c r="C88" t="s">
-        <v>49</v>
-      </c>
-      <c r="D88" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <v>14</v>
-      </c>
-      <c r="B89">
-        <v>36</v>
-      </c>
-      <c r="C89" t="s">
-        <v>49</v>
-      </c>
-      <c r="D89" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>15</v>
-      </c>
-      <c r="B90">
-        <v>0</v>
-      </c>
-      <c r="C90" t="s">
-        <v>86</v>
-      </c>
-      <c r="D90" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>16</v>
-      </c>
-      <c r="B91">
-        <v>0</v>
-      </c>
-      <c r="C91" t="s">
-        <v>87</v>
-      </c>
-      <c r="D91" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <v>17</v>
-      </c>
-      <c r="B92">
-        <v>0</v>
-      </c>
-      <c r="C92" t="s">
-        <v>88</v>
-      </c>
-      <c r="D92" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <v>18</v>
-      </c>
-      <c r="B93">
-        <v>0</v>
-      </c>
-      <c r="C93" t="s">
-        <v>89</v>
-      </c>
-      <c r="D93" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <v>19</v>
-      </c>
-      <c r="B94">
-        <v>0</v>
-      </c>
-      <c r="C94" t="s">
-        <v>90</v>
-      </c>
-      <c r="D94" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95">
-        <v>20</v>
-      </c>
-      <c r="B95">
-        <v>0</v>
-      </c>
-      <c r="C95" t="s">
-        <v>91</v>
-      </c>
-      <c r="D95" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96">
-        <v>21</v>
-      </c>
-      <c r="B96">
-        <v>0</v>
-      </c>
-      <c r="C96" t="s">
-        <v>92</v>
-      </c>
-      <c r="D96" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97">
-        <v>22</v>
-      </c>
-      <c r="B97">
-        <v>0</v>
-      </c>
-      <c r="C97" t="s">
-        <v>93</v>
-      </c>
-      <c r="D97" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <v>23</v>
-      </c>
-      <c r="B98">
-        <v>0</v>
-      </c>
-      <c r="C98" t="s">
-        <v>94</v>
-      </c>
-      <c r="D98" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99">
-        <v>24</v>
-      </c>
       <c r="B99">
         <v>0</v>
       </c>
       <c r="C99" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D99" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100">
-        <v>25</v>
-      </c>
-      <c r="B100">
-        <v>0</v>
-      </c>
-      <c r="C100" t="s">
-        <v>96</v>
-      </c>
-      <c r="D100" t="s">
         <v>96</v>
       </c>
     </row>
